--- a/DateBase/orders/Dang Nguyen_2024-12-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-9.xlsx
@@ -990,6 +990,9 @@
       <c r="G2" t="str">
         <v>0359354283151212291235825301823252810108151520104010515101020205255510301510151551010101015101551551010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
